--- a/assets/sampleExcel/sample(subNetwork&network).xlsx
+++ b/assets/sampleExcel/sample(subNetwork&network).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\WebstormProjects\bonyad\assets\sampleExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2131D4FA-17E9-4F8F-974F-D1F5F1BAB81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4F5E2F-123F-423C-88BE-8D27608D0D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C6E4011-DB4A-45A9-A7BD-FF94BB3596EC}"/>
   </bookViews>
@@ -8417,8 +8417,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E255EB0F-A4EB-4C49-9C43-0A1173354F6D}" name="Table1524" displayName="Table1524" ref="G1:G2" insertRow="1" insertRowShift="1" totalsRowShown="0">
-  <autoFilter ref="G1:G2" xr:uid="{E255EB0F-A4EB-4C49-9C43-0A1173354F6D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E255EB0F-A4EB-4C49-9C43-0A1173354F6D}" name="Table1524" displayName="Table1524" ref="G1:G200" insertRowShift="1" totalsRowShown="0">
+  <autoFilter ref="G1:G200" xr:uid="{E255EB0F-A4EB-4C49-9C43-0A1173354F6D}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{5E2A5C4E-FCAA-476C-B8D9-C5D9F939CC7C}" name="استان"/>
   </tableColumns>
@@ -8427,8 +8427,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1AEF49F8-6B11-4E00-849A-D33912A51BAC}" name="Table1636" displayName="Table1636" ref="H1:H2" insertRow="1" insertRowShift="1" totalsRowShown="0">
-  <autoFilter ref="H1:H2" xr:uid="{1AEF49F8-6B11-4E00-849A-D33912A51BAC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1AEF49F8-6B11-4E00-849A-D33912A51BAC}" name="Table1636" displayName="Table1636" ref="H1:H200" insertRowShift="1" totalsRowShown="0">
+  <autoFilter ref="H1:H200" xr:uid="{1AEF49F8-6B11-4E00-849A-D33912A51BAC}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{F9EA52C6-BEFF-4393-8FB6-CE592E13F306}" name="شهر"/>
   </tableColumns>
@@ -8828,10 +8828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6ACFF6-18CA-4118-A628-A38F711604FD}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8841,7 +8841,7 @@
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="16.109375" customWidth="1"/>
     <col min="9" max="9" width="14.21875" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8887,26 +8887,1790 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J5" s="4"/>
+      <c r="J5" s="4" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J12" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J16" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J17" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J18" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J19" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J20" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J21" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J22" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J23" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J24" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J25" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J26" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J27" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J28" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J29" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J30" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J31" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J32" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J33" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J34" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J35" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J36" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J37" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J38" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J39" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J40" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J41" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J42" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J43" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J44" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J45" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J46" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J47" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J48" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J49" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J50" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J51" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J52" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J53" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J54" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J55" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J56" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J57" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J58" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J59" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J60" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J61" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J62" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J63" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J64" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J65" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J66" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J67" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J68" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J69" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J70" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J71" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J72" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J73" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J74" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J75" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J76" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J77" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J78" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J79" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J80" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J81" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J82" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J83" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J84" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J85" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J86" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J87" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J88" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J89" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J90" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J91" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J92" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J93" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J94" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J95" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J96" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J97" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J98" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J99" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J100" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J101" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J102" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J103" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J104" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J105" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J106" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J107" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J108" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J109" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J110" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J111" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J112" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J113" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J114" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J115" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J116" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="117" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J117" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J118" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J119" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="120" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J120" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J121" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J122" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J123" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="124" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J124" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J125" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J126" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="127" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J127" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="128" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J128" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="129" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J129" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J130" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="131" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J131" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="132" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J132" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="133" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J133" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="134" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J134" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="135" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J135" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="136" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J136" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="137" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J137" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="138" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J138" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="139" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J139" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="140" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J140" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="141" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J141" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="142" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J142" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J143" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="144" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J144" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="145" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J145" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="146" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J146" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="147" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J147" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J148" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="149" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J149" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J150" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="151" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J151" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="152" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J152" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J153" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="154" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J154" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="155" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J155" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="156" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J156" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="157" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J157" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="158" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J158" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="159" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J159" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="160" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J160" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="161" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J161" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J162" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="163" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J163" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J164" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="165" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J165" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="166" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J166" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J167" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J168" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="169" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J169" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="170" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J170" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="171" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J171" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="172" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J172" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="173" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J173" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="174" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J174" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="175" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J175" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="176" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J176" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="177" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J177" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J178" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="179" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J179" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="180" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J180" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="181" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J181" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="182" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J182" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="183" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J183" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="184" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J184" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="185" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J185" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="186" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J186" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="187" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J187" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="188" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J188" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="189" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J189" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="190" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J190" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="191" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J191" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="192" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J192" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="193" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J193" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="194" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J194" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="195" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J195" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="196" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J196" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="197" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J197" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="198" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J198" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="199" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J199" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="200" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J200" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{618B8749-27F1-48EC-9083-1D2714515CA4}">
-      <formula1>INDIRECT(#REF!)</formula1>
+  <dataValidations count="198">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8 H10:H11" xr:uid="{49F18CB9-9D06-4130-8300-7947BA9BC17E}">
+      <formula1>INDIRECT($J$8)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H4" xr:uid="{49F18CB9-9D06-4130-8300-7947BA9BC17E}">
-      <formula1>INDIRECT(#REF!)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G200" xr:uid="{13C182AE-405F-41F9-8161-6D88F43585DC}">
+      <formula1>provinces</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{13C182AE-405F-41F9-8161-6D88F43585DC}">
-      <formula1>provinces</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{1883AF29-BD2F-4951-904C-56CAD91C93C5}">
+      <formula1>INDIRECT($J$2)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{10D2B898-BFDC-4880-9956-961FE4A84096}">
+      <formula1>INDIRECT($J$3)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{750BBE28-979E-4FBE-866E-8AA5435BDDBA}">
+      <formula1>INDIRECT($J$4)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5" xr:uid="{16AD5D5A-B4A9-400A-9FBE-B55493F7F8EB}">
+      <formula1>INDIRECT($J$5)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6" xr:uid="{52B39A86-2291-48EE-B4B0-85CC7446BB8C}">
+      <formula1>INDIRECT($J$6)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7" xr:uid="{2EC0E31F-478E-497D-ACCD-08583B8CD167}">
+      <formula1>INDIRECT($J$7)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9" xr:uid="{2D3212B8-A495-4CC9-A618-78AACE5546B5}">
+      <formula1>INDIRECT($J$9)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12" xr:uid="{337893F1-8060-4290-8773-DB49D8D2E6B2}">
+      <formula1>INDIRECT($J$12)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13" xr:uid="{9E0F9129-3F69-4B56-9383-F1118BCEFBF0}">
+      <formula1>INDIRECT($J$13)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14" xr:uid="{636D3660-E01C-417E-85AE-3B92FAA67A34}">
+      <formula1>INDIRECT($J$14)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15" xr:uid="{29357764-C807-4EB4-B063-FF7CFA953CE1}">
+      <formula1>INDIRECT($J$15)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16" xr:uid="{671179EB-E522-4199-8262-E6F69AC9F329}">
+      <formula1>INDIRECT($J$16)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17" xr:uid="{E358EBF0-D805-49DC-B465-E22980A20A13}">
+      <formula1>INDIRECT($J$17)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18" xr:uid="{0C981933-1932-42A0-944B-43F5ECB997F9}">
+      <formula1>INDIRECT($J$18)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H19" xr:uid="{73C636D2-745A-4D26-BA17-3728F222AB7E}">
+      <formula1>INDIRECT($J$19)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20" xr:uid="{59FA0F05-43D2-463E-9008-F2BA1E403248}">
+      <formula1>INDIRECT($J$20)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21" xr:uid="{0DC02DFA-84C4-42FD-8BE2-607E939D443B}">
+      <formula1>INDIRECT($J$21)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22" xr:uid="{8CCD2116-C6FC-46E1-B100-474071FBD03A}">
+      <formula1>INDIRECT($J$22)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H23" xr:uid="{0CCEEC75-09BE-4BEF-9AEC-443EFB7FE707}">
+      <formula1>INDIRECT($J$23)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H24" xr:uid="{B5C338E4-EF5D-4652-8843-65E25B2C532F}">
+      <formula1>INDIRECT($J$24)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H25" xr:uid="{2D6D71F0-68D4-4574-A630-6ACC7EDB91F3}">
+      <formula1>INDIRECT($J$25)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H26" xr:uid="{50B9D971-70BD-4597-B9EB-CBD99580D68D}">
+      <formula1>INDIRECT($J$26)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H27" xr:uid="{4F5DE79E-A3BE-493B-BC15-D2717D698E09}">
+      <formula1>INDIRECT($J$27)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H28" xr:uid="{09212270-BBB9-4CDE-9C16-EE66E7CFFE67}">
+      <formula1>INDIRECT($J$28)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29" xr:uid="{775B66F5-CFCF-460B-B681-CF8E621D4DDA}">
+      <formula1>INDIRECT($J$29)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H30" xr:uid="{2BE73E98-D1E3-42CF-952A-852C9F876CDC}">
+      <formula1>INDIRECT($J$30)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31" xr:uid="{8D9D0A07-0771-40E4-B1AB-E3A4E19EA3DD}">
+      <formula1>INDIRECT($J$31)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32" xr:uid="{C7FF05AC-4DAE-4C9A-887F-69D187432CE9}">
+      <formula1>INDIRECT($J$32)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H33" xr:uid="{45B10013-0CEE-4DD1-BDE2-0128F589EA1C}">
+      <formula1>INDIRECT($J$33)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H34" xr:uid="{080F1AE1-D31A-423D-8816-DAF961372DF4}">
+      <formula1>INDIRECT($J$34)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H35" xr:uid="{0FE5D8DB-5AE4-4471-AAB2-8EAA8C2A91B5}">
+      <formula1>INDIRECT($J$35)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H36" xr:uid="{D79EBD29-11D5-4EE3-A849-E0DA9409DD60}">
+      <formula1>INDIRECT($J$36)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H37" xr:uid="{189C0001-2FF5-4802-B77D-9DAA78BF16DD}">
+      <formula1>INDIRECT($J$37)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H38" xr:uid="{F2F0DADB-9733-488A-A5BD-BD73E66D60EF}">
+      <formula1>INDIRECT($J$38)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H39" xr:uid="{35DC177F-FDF1-4DA5-A7C6-999DB1262859}">
+      <formula1>INDIRECT($J$39)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H40" xr:uid="{029B7BF4-6A26-4AE2-B939-6F56B94A07DA}">
+      <formula1>INDIRECT($J$40)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H41" xr:uid="{7040E082-7AC7-46A8-AAE1-19C4FE4DF6B7}">
+      <formula1>INDIRECT($J$41)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42" xr:uid="{3980E43B-1BE8-4D9D-B2BB-4C7ED4FBE1E1}">
+      <formula1>INDIRECT($J$42)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H43" xr:uid="{77F35A45-8B24-4944-AE52-A5B5B11D4C7B}">
+      <formula1>INDIRECT($J$43)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H44" xr:uid="{A90E9AB5-60D9-48D1-8581-187AB1817A1A}">
+      <formula1>INDIRECT($J$44)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H45" xr:uid="{BD1447B0-7ABC-4DAD-A8D4-6C03FA27F69B}">
+      <formula1>INDIRECT($J$45)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H46" xr:uid="{7893FAFC-D9A2-44B8-B898-4009EC7A6C83}">
+      <formula1>INDIRECT($J$46)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H47" xr:uid="{40473EF1-7632-42FC-84E0-86DCF3E0BE82}">
+      <formula1>INDIRECT($J$47)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H48" xr:uid="{4DEABEF1-BD7B-4037-AAD7-146740644A04}">
+      <formula1>INDIRECT($J$48)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H49" xr:uid="{CA714FEC-1DD2-42FE-9DCC-B26ECF0730AB}">
+      <formula1>INDIRECT($J$49)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H50" xr:uid="{156B663C-556D-4222-BB85-FBB2151942CB}">
+      <formula1>INDIRECT($J$50)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H51" xr:uid="{E35DB781-FB4F-49E3-9C29-16BB76B0E4B5}">
+      <formula1>INDIRECT($J$51)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H52" xr:uid="{FD72FA92-7997-42A0-BA7F-E76D7C9123E3}">
+      <formula1>INDIRECT($J$52)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H53" xr:uid="{5306750D-C353-41B1-8DD3-6A94200E04A3}">
+      <formula1>INDIRECT($J$53)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H54" xr:uid="{02B914DD-ADD7-474F-9A72-F3004DF7EEA7}">
+      <formula1>INDIRECT($J$54)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H55" xr:uid="{65AEECD8-825E-4419-8C6A-ACD66253E8F9}">
+      <formula1>INDIRECT($J$55)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H56" xr:uid="{49EA988E-1D50-49BE-B43C-FBA8BE013511}">
+      <formula1>INDIRECT($J$56)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H57" xr:uid="{16221DEF-C288-41AF-AD38-896D7BE5DC58}">
+      <formula1>INDIRECT($J$57)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H58" xr:uid="{79CE3A34-1BBF-4794-AE06-99C3E0E3FB0D}">
+      <formula1>INDIRECT($J$58)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H59" xr:uid="{1D1BF3A3-1A51-43E7-9CB5-E07DCA7EEB28}">
+      <formula1>INDIRECT($J$59)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H60" xr:uid="{790A7A47-4859-4779-94FB-10355A6EB596}">
+      <formula1>INDIRECT($J$60)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H61" xr:uid="{EFC8835A-C17C-4467-B613-D204E7B5593A}">
+      <formula1>INDIRECT($J$61)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H62" xr:uid="{A78CB93B-8B33-4210-BECF-F668575D80B9}">
+      <formula1>INDIRECT($J$62)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H63" xr:uid="{D4297A1F-E3BA-4471-9172-A3C5F185CE44}">
+      <formula1>INDIRECT($J$63)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H64" xr:uid="{282E0EE9-4975-49EF-967B-E7AC3F7D2E04}">
+      <formula1>INDIRECT($J$64)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65" xr:uid="{376E3276-5172-4105-B1D2-DEA3D8134970}">
+      <formula1>INDIRECT($J$65)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H66" xr:uid="{0CBD0D32-942C-4748-8B8C-CA952504F7B8}">
+      <formula1>INDIRECT($J$66)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H67" xr:uid="{3F823276-5CCD-4720-A981-A020E555C584}">
+      <formula1>INDIRECT($J$67)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H68" xr:uid="{4D362CCA-AA3C-4448-BC25-843CC1C7B265}">
+      <formula1>INDIRECT($J$68)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H69" xr:uid="{D19A4B12-61BB-455A-AB5F-EB101F508759}">
+      <formula1>INDIRECT($J$69)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H70" xr:uid="{60B843F0-E618-42ED-A799-E169BD731DC5}">
+      <formula1>INDIRECT($J$70)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H71" xr:uid="{E94667BA-ADE7-41BB-A17D-2D445946A38F}">
+      <formula1>INDIRECT($J$71)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H72" xr:uid="{F73B9796-DA8B-4588-83B2-A645F13182F9}">
+      <formula1>INDIRECT($J$72)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H73" xr:uid="{6F83A9FD-38B7-472E-8293-B83D8C8DE299}">
+      <formula1>INDIRECT($J$73)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H74" xr:uid="{A411910E-799E-4F2D-8800-480731915C0F}">
+      <formula1>INDIRECT($J$74)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H75" xr:uid="{1B2711A5-ADD6-41B7-A2D2-FAA458C45B95}">
+      <formula1>INDIRECT($J$75)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H76" xr:uid="{D3D37D53-F343-4295-A7BB-FE13F6B33585}">
+      <formula1>INDIRECT($J$76)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H77" xr:uid="{87BF2D24-63CB-43E9-91DA-5B89DDB921AD}">
+      <formula1>INDIRECT($J$77)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H78" xr:uid="{3FEA2A57-57A8-44A7-9840-9425C4012E9D}">
+      <formula1>INDIRECT($J$78)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H79" xr:uid="{1A0DD816-7DBE-49DD-AE4A-F7B4A2D0BB49}">
+      <formula1>INDIRECT($J$79)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H80" xr:uid="{D8D97660-1397-4ADA-9DCB-F0F0EF95000C}">
+      <formula1>INDIRECT($J$80)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H81" xr:uid="{1F48A3E2-FA4B-40BA-A86B-7EC899051B76}">
+      <formula1>INDIRECT($J$81)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H82" xr:uid="{074638A9-E69B-4EFE-9E0A-333B5C48963F}">
+      <formula1>INDIRECT($J$82)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H83" xr:uid="{F04D8D5D-6361-406F-809A-1A70A2147313}">
+      <formula1>INDIRECT($J$83)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H84" xr:uid="{C75573A4-9DA2-4953-A666-FFE8FBEA08F1}">
+      <formula1>INDIRECT($J$84)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H85" xr:uid="{88AC0637-C94C-4E9E-A58B-A2D994C491CB}">
+      <formula1>INDIRECT($J$85)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H86" xr:uid="{36322338-6453-4B47-9A84-CE36CDA187A8}">
+      <formula1>INDIRECT($J$86)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H87" xr:uid="{78C6B480-970A-4059-8183-8254C028635E}">
+      <formula1>INDIRECT($J$87)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H88" xr:uid="{5185DFA3-7C94-4A1F-B8FF-0700CE266020}">
+      <formula1>INDIRECT($J$88)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H89" xr:uid="{DB83C901-F8CE-429B-BEA7-66DA9836CF12}">
+      <formula1>INDIRECT($J$89)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H90" xr:uid="{A8C6EAC0-7119-4266-B7E9-B05B3A393FB3}">
+      <formula1>INDIRECT($J$90)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H91" xr:uid="{E32DCDEF-C308-446A-8D7A-681A0A783053}">
+      <formula1>INDIRECT($J$91)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H92" xr:uid="{D9F04703-5718-4BB9-B838-028C0EFD4086}">
+      <formula1>INDIRECT($J$92)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H93" xr:uid="{6E40500D-A420-44C8-A473-EE9F561EE942}">
+      <formula1>INDIRECT($J$93)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H94" xr:uid="{9AD77AAE-9390-4BAD-B8E6-E6631D7F4DFD}">
+      <formula1>INDIRECT($J$94)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H95" xr:uid="{B8C547C0-DB67-4401-974F-18E2A5017DBD}">
+      <formula1>INDIRECT($J$95)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H96" xr:uid="{93C79CA9-6AB3-4224-9342-36A15EEA6AEE}">
+      <formula1>INDIRECT($J$96)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H97" xr:uid="{74D4370B-53EB-4F98-8A18-35D0618CAA39}">
+      <formula1>INDIRECT($J$97)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H98" xr:uid="{63BA00B5-B6EE-4DA4-B5ED-DD3C8A128D11}">
+      <formula1>INDIRECT($J$98)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H99" xr:uid="{3529E137-727B-45AF-B831-4FD09BBD3D92}">
+      <formula1>INDIRECT($J$99)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H100" xr:uid="{0F1C93A8-7D53-4EA3-AC79-93A78253C8E8}">
+      <formula1>INDIRECT($J$100)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H101" xr:uid="{C86D9AF2-C50F-4263-A5CE-6412C860EE8D}">
+      <formula1>INDIRECT($J$101)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H102" xr:uid="{792251DA-21E2-4747-82FA-51DEE3B419B3}">
+      <formula1>INDIRECT($J$102)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H103" xr:uid="{5435AC1D-45F1-4626-AEFB-4A0301C90398}">
+      <formula1>INDIRECT($J$103)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H104" xr:uid="{BF7DEBE8-2C89-4166-B6EC-861629E3904E}">
+      <formula1>INDIRECT($J$104)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H105" xr:uid="{0071F11F-B3F3-42BE-BF5B-83298BD0646C}">
+      <formula1>INDIRECT($J$105)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H106" xr:uid="{481DD500-791A-40CF-9D0E-43AE2616ACE4}">
+      <formula1>INDIRECT($J$106)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H107" xr:uid="{00E995F4-80C5-4C2E-B8F1-6BF88196EEF1}">
+      <formula1>INDIRECT($J$107)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H108" xr:uid="{58459B73-B409-46DA-98E6-536539950083}">
+      <formula1>INDIRECT($J$108)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H109" xr:uid="{286B8921-F9E2-4A1F-AAC2-D34FAC4FD235}">
+      <formula1>INDIRECT($J$109)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H110" xr:uid="{257476BF-8681-43A7-9D3F-111E54C43AD3}">
+      <formula1>INDIRECT($J$110)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H111" xr:uid="{140E2791-1B85-4AB2-8283-32CAAF51D765}">
+      <formula1>INDIRECT($J$111)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H112" xr:uid="{4CEE1790-F875-48CF-8ECF-BB9903A02E28}">
+      <formula1>INDIRECT($J$112)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H113" xr:uid="{3A763EE6-E40D-4A87-9B5A-AEDF365AC33B}">
+      <formula1>INDIRECT($J$113)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H114" xr:uid="{502ADB84-890A-440B-83E8-CBF9CDEC9019}">
+      <formula1>INDIRECT($J$114)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H115" xr:uid="{8F1AF131-908F-4078-AAF0-71D93523E85B}">
+      <formula1>INDIRECT($J$115)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H116" xr:uid="{C7C5691B-C505-486F-82BD-4EE4AFF2BDFD}">
+      <formula1>INDIRECT($J$116)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H117" xr:uid="{839B51AA-50A6-46B5-BB9B-F17A02E0C28A}">
+      <formula1>INDIRECT($J$117)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H118" xr:uid="{97C84C9A-2205-44BF-9839-9288DFCE3FE2}">
+      <formula1>INDIRECT($J$118)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H119" xr:uid="{397D483B-6807-4624-95A6-269BC0D7581F}">
+      <formula1>INDIRECT($J$119)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H120" xr:uid="{73806267-64B8-47A0-8658-A25E4B021BFC}">
+      <formula1>INDIRECT($J$120)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H121" xr:uid="{D1A23370-41D4-484A-B0AE-A0B8F7960B1C}">
+      <formula1>INDIRECT($J$121)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H122" xr:uid="{4F0F5BD1-20B1-4CB5-B466-11FE9AD9E221}">
+      <formula1>INDIRECT($J$122)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H123" xr:uid="{FAFB204C-EB8F-42CD-B7E6-48EEA54FE3E2}">
+      <formula1>INDIRECT($J$123)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H124" xr:uid="{FEBB39DB-EA67-48FA-B14F-6EB10D2B2267}">
+      <formula1>INDIRECT($J$124)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H125" xr:uid="{44F218BF-2D32-43C2-8F52-DD0CA622138B}">
+      <formula1>INDIRECT($J$125)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H126" xr:uid="{2B88C9DE-3FED-412C-8CF4-D1494AE04E3F}">
+      <formula1>INDIRECT($J$126)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H127" xr:uid="{D6CFA359-6198-43CF-9C79-63B5F5AC7457}">
+      <formula1>INDIRECT($J$127)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H128" xr:uid="{7971B00E-8003-4658-AAFA-978F5A6C3B22}">
+      <formula1>INDIRECT($J$128)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H129" xr:uid="{FF2A9136-7E6C-4953-874E-A914BCB422DD}">
+      <formula1>INDIRECT($J$129)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H130" xr:uid="{F8FB1B5E-5BA1-4D2E-9C72-2C7272277705}">
+      <formula1>INDIRECT($J$130)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H131" xr:uid="{A012512B-4C66-4824-BAFC-F1D72FFB31F9}">
+      <formula1>INDIRECT($J$131)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H132" xr:uid="{59A97A19-8322-4310-A0E0-D06C6AE8C16D}">
+      <formula1>INDIRECT($J$132)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H133" xr:uid="{4BF1E51E-5A12-4480-872B-C71700DD3283}">
+      <formula1>INDIRECT($J$133)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H134" xr:uid="{8C1067F6-8D55-47B7-850C-56385613AB0C}">
+      <formula1>INDIRECT($J$134)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H135" xr:uid="{51370D6E-F0A6-4AAE-B1EF-8376354E75AE}">
+      <formula1>INDIRECT($J$135)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H136" xr:uid="{9952D374-3AAC-4907-824C-D79466A9C731}">
+      <formula1>INDIRECT($J$136)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H137" xr:uid="{E35F0F7B-24A0-4008-8BF2-249679450C2F}">
+      <formula1>INDIRECT($J$137)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H138" xr:uid="{D016308D-58E9-4011-8AD0-9A97A9CBE9D8}">
+      <formula1>INDIRECT($J$138)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H139" xr:uid="{AD3C0987-42F5-4690-A6A8-177ABD7FA8AA}">
+      <formula1>INDIRECT($J$139)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H140" xr:uid="{A9162A40-7F4A-4791-AC65-5F50D37B3869}">
+      <formula1>INDIRECT($J$140)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H141" xr:uid="{1FA5309C-F575-4806-AAF9-282A949D74AC}">
+      <formula1>INDIRECT($J$141)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H142" xr:uid="{05E6B214-56F5-49FD-96C6-07BA270F4855}">
+      <formula1>INDIRECT($J$142)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H143" xr:uid="{E495985D-4980-4C27-8035-BBB62DD2DC45}">
+      <formula1>INDIRECT($J$143)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H144" xr:uid="{12483E8A-F924-4017-B26E-B951F5133831}">
+      <formula1>INDIRECT($J$144)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H145" xr:uid="{C74BB93A-8A93-47C5-B37A-AF3C45695776}">
+      <formula1>INDIRECT($J$145)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H146" xr:uid="{794779E2-28E0-475C-8A6A-17F7535EB89E}">
+      <formula1>INDIRECT($J$146)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H147" xr:uid="{631B1243-4A0C-4F05-909A-C147818381FC}">
+      <formula1>INDIRECT($J$147)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H148" xr:uid="{E905A95B-8BB8-40BD-BC3F-6550025D1F21}">
+      <formula1>INDIRECT($J$148)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H149" xr:uid="{C21B6259-687A-473F-9AD3-B5AABFD2DC9D}">
+      <formula1>INDIRECT($J$149)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H150" xr:uid="{88E7E85D-C8E7-43CF-AB0B-F725B7795AB7}">
+      <formula1>INDIRECT($J$150)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H151" xr:uid="{A815B566-D2FA-4460-9D98-E2500552E206}">
+      <formula1>INDIRECT($J$151)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H152" xr:uid="{F238051F-4992-4CA8-B93B-997B4BEBFBD0}">
+      <formula1>INDIRECT($J$152)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H153" xr:uid="{7C5A5AA4-89A3-4AC2-9D74-29359A00E0B0}">
+      <formula1>INDIRECT($J$153)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H154" xr:uid="{76545AC9-BF1A-4D0C-9178-3939F26F511E}">
+      <formula1>INDIRECT($J$154)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H155" xr:uid="{5FC48201-2FA8-448F-9206-30A3A2F88B80}">
+      <formula1>INDIRECT($J$155)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H156" xr:uid="{155F3868-6F12-41B8-9DF8-12A5247D8A08}">
+      <formula1>INDIRECT($J$156)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H157" xr:uid="{5E24232D-379A-4BA4-B2EF-ED29D1E2027A}">
+      <formula1>INDIRECT($J$157)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H158" xr:uid="{5D5ED9FB-FB1A-486C-8038-E84B6E35C17E}">
+      <formula1>INDIRECT($J$158)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H159" xr:uid="{1BED6A92-A822-4679-8F0A-4B410A432E78}">
+      <formula1>INDIRECT($J$159)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H160" xr:uid="{C260DE0F-A97C-4452-9FA9-57EB744AA5A4}">
+      <formula1>INDIRECT($J$160)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H161" xr:uid="{1D7D694E-FD1B-459D-A92C-B426EF1AB26A}">
+      <formula1>INDIRECT($J$161)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H162" xr:uid="{14B3A1A5-6283-41DB-943F-55A046D363B0}">
+      <formula1>INDIRECT($J$162)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H163" xr:uid="{B48E2E34-AD4A-4181-9045-EDCE067C86FB}">
+      <formula1>INDIRECT($J$163)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H164" xr:uid="{CE333239-A531-46AA-8EB0-291165B66086}">
+      <formula1>INDIRECT($J$164)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H165" xr:uid="{40CE1B70-508F-4BB7-931B-E589D3A4166A}">
+      <formula1>INDIRECT($J$165)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H166" xr:uid="{9841D74C-AF72-4E5D-A8E8-140DA004121C}">
+      <formula1>INDIRECT($J$166)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H167" xr:uid="{07AE0286-B6E2-4956-A62C-B59FE0123A99}">
+      <formula1>INDIRECT($J$167)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H168" xr:uid="{1B4962FB-73FC-4C6B-A717-C809819D0BFC}">
+      <formula1>INDIRECT($J$168)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H169" xr:uid="{B8D3B750-D09F-4C51-B57C-7C4A722B02EC}">
+      <formula1>INDIRECT($J$169)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H170" xr:uid="{967D8348-1B13-4075-94AC-0967BD3990F6}">
+      <formula1>INDIRECT($J$170)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H171" xr:uid="{8BC53D24-71E4-4660-8DA7-0AFC15977313}">
+      <formula1>INDIRECT($J$171)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H172" xr:uid="{6851A30E-1D22-4743-8BB8-EBB6A2984CB1}">
+      <formula1>INDIRECT($J$172)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H173" xr:uid="{45BA9CBD-9B1D-4D9E-9EF8-B2204AD76E54}">
+      <formula1>INDIRECT($J$173)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H174" xr:uid="{FA1027AF-4C38-42E1-B0F4-6FFEF8DED316}">
+      <formula1>INDIRECT($J$174)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H175" xr:uid="{24D33753-EF65-466D-8CF5-2ACB8840ED71}">
+      <formula1>INDIRECT($J$175)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H176" xr:uid="{03B1A797-42BE-4105-AD84-27C2FDFF14C0}">
+      <formula1>INDIRECT($J$176)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H177" xr:uid="{737C7463-6622-4039-9236-531726F59740}">
+      <formula1>INDIRECT($J$177)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H178" xr:uid="{61D0D89D-5DF1-4E21-80F5-C526314CEAF9}">
+      <formula1>INDIRECT($J$178)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H179" xr:uid="{DCE35332-0392-4F7B-BE13-D2EE45810EC9}">
+      <formula1>INDIRECT($J$179)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H180" xr:uid="{7666A689-4637-4D2C-9A33-910663A3A658}">
+      <formula1>INDIRECT($J$180)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H181" xr:uid="{FB804FDD-098B-4A9D-B8C3-1CED9D604703}">
+      <formula1>INDIRECT($J$181)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H182" xr:uid="{C0FA3AE5-B865-4CC5-AF42-47BF885581A0}">
+      <formula1>INDIRECT($J$182)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H183" xr:uid="{F5CB0061-35C0-4C06-A514-0E1B65675D91}">
+      <formula1>INDIRECT($J$183)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H184" xr:uid="{C5C8E2FC-3A40-4F06-82F7-3849FEF0DB6A}">
+      <formula1>INDIRECT($J$184)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H185" xr:uid="{D90E040C-77EE-4A37-8BF7-823D16876E1D}">
+      <formula1>INDIRECT($J$185)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H186" xr:uid="{807BF29F-0623-4D96-B031-EF84645EE1B9}">
+      <formula1>INDIRECT($J$186)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H187" xr:uid="{F71F8556-E402-460F-83A3-E356F9E8263D}">
+      <formula1>INDIRECT($J$187)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H188" xr:uid="{AC513208-00C8-4F53-B8BF-A36D3BE213E0}">
+      <formula1>INDIRECT($J$188)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H189" xr:uid="{D296ADE1-3448-4E1F-8938-86651C966741}">
+      <formula1>INDIRECT($J$189)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H190" xr:uid="{4FC0B274-F865-4619-88AA-085DC2D210A7}">
+      <formula1>INDIRECT($J$190)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H191" xr:uid="{100F8494-8D05-4369-AB16-98BCE1147874}">
+      <formula1>INDIRECT($J$191)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H192" xr:uid="{BC8FBA41-EC10-4F4F-AA32-A10FBBB14860}">
+      <formula1>INDIRECT($J$192)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H193" xr:uid="{5B387051-758A-4CA0-8099-9D4E32B5A85D}">
+      <formula1>INDIRECT($J$193)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H194" xr:uid="{8F0EC073-722B-4D3C-A84A-4F89C20927C7}">
+      <formula1>INDIRECT($J$194)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H195" xr:uid="{AF94E6E0-EF72-4EC4-BCB0-8DCD5B6E2D73}">
+      <formula1>INDIRECT($J$195)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H196" xr:uid="{FB62D6A5-58BE-44AA-A6E3-E0424C72C103}">
+      <formula1>INDIRECT($J$196)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H197" xr:uid="{11411C61-D217-4816-9E0A-406EF7883388}">
+      <formula1>INDIRECT($J$197)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H198" xr:uid="{7D63883F-1BF0-47CD-AE1F-B742E2BD7427}">
+      <formula1>INDIRECT($J$198)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H199" xr:uid="{A6776705-3476-46C8-BE51-9F362E88F924}">
+      <formula1>INDIRECT($J$199)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H200" xr:uid="{D4C30D6B-83BF-4BE3-BBD9-04E97BFAD73A}">
+      <formula1>INDIRECT($J$200)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8921,13 +10685,13 @@
           <x14:formula1>
             <xm:f>Data!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C4</xm:sqref>
+          <xm:sqref>C2:C200</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{107A5C3A-02D0-4884-97B1-B5736F413BB9}">
           <x14:formula1>
             <xm:f>Data!$J$2:$J$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D4</xm:sqref>
+          <xm:sqref>D2:D200</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8939,7 +10703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE959FDC-43AB-4480-8067-EFDA6EAB4485}">
   <dimension ref="A1:AR1355"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="B2" workbookViewId="0">
       <selection activeCell="AD2" sqref="AD2:AD114"/>
     </sheetView>
   </sheetViews>
